--- a/biology/Médecine/Coloplast/Coloplast.xlsx
+++ b/biology/Médecine/Coloplast/Coloplast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coloplast est une entreprise danoise. Fondé en 1957, le groupe est spécialisé dans la production, la commercialisation et la distribution de dispositifs médicaux visant à faciliter la vie des personnes souffrant d’altérations physiques intimes.
 Son siège social est basé à Humlebæk. Coloplast emploie plus de 12 000 collaborateurs répartis dans 41 pays. Ses produits et services sont commercialisés dans 139 pays. Le groupe possède 8 sites de production : 1 au Costa-Rica, 1 en France, 1 au Danemark, 2 en Hongrie et 1 en Chine.
-Le groupe est côté à la Bourse de Copenhague[3] et fait partie de l'indice C20[4].
+Le groupe est côté à la Bourse de Copenhague et fait partie de l'indice C20.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’histoire de Coloplast a commencé en 1954. Elise Sørensen est infirmière. Sa sœur Thora vient de subir une colostomie[5] et refuse de sortir de chez elle, redoutant que sa stomie ne fuie en public. À l’écoute des problèmes de sa sœur, Elise a l’idée de la première poche de stomie adhésive.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’histoire de Coloplast a commencé en 1954. Elise Sørensen est infirmière. Sa sœur Thora vient de subir une colostomie et refuse de sortir de chez elle, redoutant que sa stomie ne fuie en public. À l’écoute des problèmes de sa sœur, Elise a l’idée de la première poche de stomie adhésive.
 Fidèle à l’idée d’Elise, l’ingénieur civil et fabricant de plastique, Aage Louis-Hansen, crée avec l’aide de sa femme infirmière, Johanne Louis-Hansen, une poche de stomie. Une poche de stomie qui donne à Thora, et à des milliers d’autres personnes dans le même cas, la possibilité de vivre la vie qu’elles souhaitent.
-En novembre 2021, Coloplast annonce l'acquisition pour 2,5 milliards de dollars d'Atos Medical, spécialisée dans la laryngectomie qui appartenait à PAI Partners[6].
+En novembre 2021, Coloplast annonce l'acquisition pour 2,5 milliards de dollars d'Atos Medical, spécialisée dans la laryngectomie qui appartenait à PAI Partners.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Coloplast commercialise ses produits et services à l’échelle mondiale. Les produits sont distribués via les professionnels de santé dans les hôpitaux, les institutions, les grossistes et les revendeurs. Sur certains marchés, les produits peuvent être livrés directement aux consommateurs finaux (à domicile). En France, ce service est possible grâce à la filiale de distribution Lilial.
 Le groupe intervient dans quatre domaines d’activité :
@@ -582,9 +598,11 @@
           <t>Principaux actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 17 décembre 2019[7]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 17 décembre 2019:
 </t>
         </is>
       </c>
